--- a/Practica1/Practica1.xlsx
+++ b/Practica1/Practica1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\2025\Auxiliatura\Orga\EJEMPLOSORGA1S2025\Practica1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB26F596-46DE-4300-BF63-74231DC8BD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E32F024-C56A-4287-B513-8047DA2881BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="1" xr2:uid="{DCEB59B2-2147-42C9-800F-10DC07A93388}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>Entradas</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>f(W, X, Y, Z) = (X + Y)(X + Z')</t>
+  </si>
+  <si>
+    <t>(0,1)(0,0)+(0,1)(0,1)+(1,1)(0,0)+(1,1)(0,1)</t>
   </si>
 </sst>
 </file>
@@ -245,18 +248,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -390,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -408,26 +405,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -766,30 +759,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A366281-D350-405C-ADA4-B50600092A55}">
   <dimension ref="B2:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="9" t="s">
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
       <c r="O2" t="s">
         <v>16</v>
       </c>
@@ -1550,22 +1543,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E222B1F1-1E9D-47E5-8B50-7CFB02FF7A54}">
-  <dimension ref="B2:M29"/>
+  <dimension ref="B2:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I2" sqref="I2:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1607,13 +1600,13 @@
       <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="14">
-        <v>0</v>
-      </c>
-      <c r="K3" s="14">
-        <v>0</v>
-      </c>
-      <c r="L3" s="15">
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
         <v>0</v>
       </c>
       <c r="M3" s="6">
@@ -1642,14 +1635,14 @@
       <c r="I4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="16">
-        <v>1</v>
-      </c>
-      <c r="K4" s="16">
-        <v>1</v>
-      </c>
-      <c r="L4" s="17">
-        <v>1</v>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0</v>
       </c>
       <c r="M4" s="8">
         <v>1</v>
@@ -1677,13 +1670,13 @@
       <c r="I5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="16">
-        <v>1</v>
-      </c>
-      <c r="K5" s="16">
-        <v>1</v>
-      </c>
-      <c r="L5" s="17">
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="10">
         <v>1</v>
       </c>
       <c r="M5" s="5">
@@ -1712,13 +1705,13 @@
       <c r="I6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="16">
-        <v>0</v>
-      </c>
-      <c r="K6" s="16">
-        <v>0</v>
-      </c>
-      <c r="L6" s="17">
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
         <v>0</v>
       </c>
       <c r="M6" s="7">
@@ -1726,22 +1719,22 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="18">
+      <c r="B7" s="16">
         <v>3</v>
       </c>
-      <c r="C7" s="18">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0</v>
-      </c>
-      <c r="E7" s="18">
-        <v>1</v>
-      </c>
-      <c r="F7" s="18">
-        <v>1</v>
-      </c>
-      <c r="G7" s="18">
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1765,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -1787,12 +1780,12 @@
       <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
-        <v>48</v>
-      </c>
+      <c r="I9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
@@ -1813,12 +1806,6 @@
       <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
@@ -1839,12 +1826,6 @@
       <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
@@ -1865,12 +1846,6 @@
       <c r="G12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
@@ -1891,12 +1866,6 @@
       <c r="G13" s="2">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
@@ -1917,12 +1886,6 @@
       <c r="G14" s="2">
         <v>1</v>
       </c>
-      <c r="I14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
@@ -1963,15 +1926,8 @@
       <c r="G16" s="2">
         <v>1</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>13</v>
       </c>
@@ -1990,15 +1946,8 @@
       <c r="G17" s="2">
         <v>1</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>14</v>
       </c>
@@ -2018,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>15</v>
       </c>
@@ -2038,45 +1987,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
+    <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
       <c r="F22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
+    <row r="23" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
       <c r="F23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
+    <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
       <c r="F24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>35</v>
       </c>
@@ -2084,17 +2033,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>39</v>
       </c>
@@ -2102,11 +2051,83 @@
         <v>40</v>
       </c>
     </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="I9:L9"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E23"/>

--- a/Practica1/Practica1.xlsx
+++ b/Practica1/Practica1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\2025\Auxiliatura\Orga\EJEMPLOSORGA1S2025\Practica1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E32F024-C56A-4287-B513-8047DA2881BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1000DB0-5FA0-4538-91C5-6FB3C399EED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="1" xr2:uid="{DCEB59B2-2147-42C9-800F-10DC07A93388}"/>
+    <workbookView xWindow="25440" yWindow="0" windowWidth="13065" windowHeight="15585" activeTab="1" xr2:uid="{DCEB59B2-2147-42C9-800F-10DC07A93388}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>Entradas</t>
   </si>
@@ -130,12 +130,6 @@
     <t>1,0</t>
   </si>
   <si>
-    <t>(0,1)(0,0)+(0,1)(0,1)+(0,1)(1,1)+(0,1)(1,0)</t>
-  </si>
-  <si>
-    <t>W'X</t>
-  </si>
-  <si>
     <t>Minterminos</t>
   </si>
   <si>
@@ -145,30 +139,9 @@
     <t>WX</t>
   </si>
   <si>
-    <t>(1,0)(0,0)+(1,0)(0,1)+(1,0)(1,1)+(1,0)(1,0)</t>
-  </si>
-  <si>
     <t>YZ'</t>
   </si>
   <si>
-    <t>Resultado:</t>
-  </si>
-  <si>
-    <t>W'X+WX+YZ'</t>
-  </si>
-  <si>
-    <t>(A*B)+(A*B')= A</t>
-  </si>
-  <si>
-    <t>(W*X)+(W'*X)= X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simpli: </t>
-  </si>
-  <si>
-    <t>X+YZ'</t>
-  </si>
-  <si>
     <t>Maxterminos</t>
   </si>
   <si>
@@ -208,13 +181,43 @@
     <t>W'+X+Y'+Z'</t>
   </si>
   <si>
-    <t>(X)((W+Y+Z)(W+Y+Z')(W+Y'+Z')(W'+Y+Z)(W'+Y+Z')(W'+Y'+Z'))</t>
-  </si>
-  <si>
-    <t>f(W, X, Y, Z) = (X + Y)(X + Z')</t>
-  </si>
-  <si>
     <t>(0,1)(0,0)+(0,1)(0,1)+(1,1)(0,0)+(1,1)(0,1)</t>
+  </si>
+  <si>
+    <t>(0,0)(1,0)+(0,1)(1,0)+(1,1)(1,0)+(1,0)(1,0)</t>
+  </si>
+  <si>
+    <t>XY'</t>
+  </si>
+  <si>
+    <t>W'XY'Z'+W'XY'Z+WXY'Z'+WXY'Z</t>
+  </si>
+  <si>
+    <t>W'XY'+W'XY'+WXY'+WXY'</t>
+  </si>
+  <si>
+    <t>XY'+XY'+XY'+XY'</t>
+  </si>
+  <si>
+    <t>F(W,X,Y,Z)=</t>
+  </si>
+  <si>
+    <t>XY'+WX+YZ'</t>
+  </si>
+  <si>
+    <t>(0,1)(1,1)</t>
+  </si>
+  <si>
+    <t>W+X'+Y'+Z'</t>
+  </si>
+  <si>
+    <t>(X)((W+Y+Z)(W+Y+Z')(W+Y'+Z')(W'+Y+Z)(W'+Y+Z')(W'+Y'+Z')(W+X'+Y+Z'))</t>
+  </si>
+  <si>
+    <t>f(W, X, Y, Z) = (X + Y)(W + Y' + Z')(X + Z')</t>
+  </si>
+  <si>
+    <t>F(W, X, Y, Z) = (X + Y)(W + Y' + Z')(X + Z')</t>
   </si>
 </sst>
 </file>
@@ -248,12 +251,54 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -387,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -399,12 +444,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -414,13 +453,64 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -760,29 +850,29 @@
   <dimension ref="B2:O19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:M19"/>
+      <selection activeCell="G3" sqref="G3:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="11" t="s">
+      <c r="C2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11"/>
       <c r="O2" t="s">
         <v>16</v>
       </c>
@@ -1543,22 +1633,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E222B1F1-1E9D-47E5-8B50-7CFB02FF7A54}">
-  <dimension ref="B2:M42"/>
+  <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:M6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1578,7 +1668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1600,20 +1690,20 @@
       <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="9">
-        <v>0</v>
-      </c>
-      <c r="M3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J3" s="32">
+        <v>0</v>
+      </c>
+      <c r="K3" s="34">
+        <v>0</v>
+      </c>
+      <c r="L3" s="35">
+        <v>0</v>
+      </c>
+      <c r="M3" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>0</v>
       </c>
@@ -1635,20 +1725,20 @@
       <c r="I4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="5">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5">
-        <v>1</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J4" s="26">
+        <v>1</v>
+      </c>
+      <c r="K4" s="26">
+        <v>1</v>
+      </c>
+      <c r="L4" s="39">
+        <v>0</v>
+      </c>
+      <c r="M4" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1670,20 +1760,20 @@
       <c r="I5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="10">
-        <v>1</v>
-      </c>
-      <c r="M5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J5" s="26">
+        <v>1</v>
+      </c>
+      <c r="K5" s="26">
+        <v>1</v>
+      </c>
+      <c r="L5" s="27">
+        <v>1</v>
+      </c>
+      <c r="M5" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -1705,40 +1795,40 @@
       <c r="I6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="10">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="16">
+      <c r="J6" s="21">
+        <v>0</v>
+      </c>
+      <c r="K6" s="17">
+        <v>0</v>
+      </c>
+      <c r="L6" s="36">
+        <v>0</v>
+      </c>
+      <c r="M6" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="16">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16">
-        <v>1</v>
-      </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -1758,10 +1848,10 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -1780,14 +1870,14 @@
       <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I9" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>6</v>
       </c>
@@ -1806,8 +1896,14 @@
       <c r="G10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I10" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>7</v>
       </c>
@@ -1826,8 +1922,14 @@
       <c r="G11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>8</v>
       </c>
@@ -1846,8 +1948,14 @@
       <c r="G12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I12" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>9</v>
       </c>
@@ -1866,8 +1974,14 @@
       <c r="G13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I13" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>10</v>
       </c>
@@ -1886,8 +2000,14 @@
       <c r="G14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I14" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>11</v>
       </c>
@@ -1906,8 +2026,14 @@
       <c r="G15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I15" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>12</v>
       </c>
@@ -1926,8 +2052,16 @@
       <c r="G16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>13</v>
       </c>
@@ -1946,8 +2080,15 @@
       <c r="G17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>14</v>
       </c>
@@ -1967,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>15</v>
       </c>
@@ -1987,150 +2128,170 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="17">
+        <v>1</v>
+      </c>
+      <c r="D24" s="17">
+        <v>1</v>
+      </c>
+      <c r="E24" s="18">
+        <v>1</v>
+      </c>
+      <c r="F24" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F31" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
+      <c r="B36" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="I17:M17"/>
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="I16:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Practica1/Practica1.xlsx
+++ b/Practica1/Practica1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\2025\Auxiliatura\Orga\EJEMPLOSORGA1S2025\Practica1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1000DB0-5FA0-4538-91C5-6FB3C399EED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210F947B-5803-4DDB-ABFE-4E86C6061484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25440" yWindow="0" windowWidth="13065" windowHeight="15585" activeTab="1" xr2:uid="{DCEB59B2-2147-42C9-800F-10DC07A93388}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{DCEB59B2-2147-42C9-800F-10DC07A93388}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="84">
   <si>
     <t>Entradas</t>
   </si>
@@ -218,13 +218,91 @@
   </si>
   <si>
     <t>F(W, X, Y, Z) = (X + Y)(W + Y' + Z')(X + Z')</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>MINTERMINOS</t>
+  </si>
+  <si>
+    <t>MAXTERMINOS</t>
+  </si>
+  <si>
+    <t>(0,0)(0,0)+(0,0)(0,1)+(0,1)(0,0)+(0,1)(0,1)</t>
+  </si>
+  <si>
+    <t>W'X'Y'Z'+W'X'Y'Z+W'XY'Z'+W'XY'Z</t>
+  </si>
+  <si>
+    <t>W'Y'</t>
+  </si>
+  <si>
+    <t>W'X'Y'+W'X'Y'+W'XY'+W'XY'</t>
+  </si>
+  <si>
+    <t>(0,0)(0,0)+(0,1)(0,0)+(1,1)(0,0)+(1,0)(0,0)</t>
+  </si>
+  <si>
+    <t>W'X'Y'Z'+W'XY'Z'+WXY'Z'+WX'Y'Z'</t>
+  </si>
+  <si>
+    <t>Y'Z'</t>
+  </si>
+  <si>
+    <t>(0,0)(1,1)+(0,1)(1,1)+(1,1)(1,1)+(1,0)(1,1)</t>
+  </si>
+  <si>
+    <t>(0,1)(0,0)+(0,1)(0,1)+(0,1)(1,1)+(0,1)(1,0)</t>
+  </si>
+  <si>
+    <t>(1,0)(0,0)+(1,0)(0,1)+(1,0)(1,1)+(1,0)(1,0)</t>
+  </si>
+  <si>
+    <t>YZ</t>
+  </si>
+  <si>
+    <t>W'X</t>
+  </si>
+  <si>
+    <t>WX'</t>
+  </si>
+  <si>
+    <t>Respuesta final</t>
+  </si>
+  <si>
+    <t>W'X+WX'+Y'Z'+YZ+W'Y'</t>
+  </si>
+  <si>
+    <t>(1,1)(0,1)</t>
+  </si>
+  <si>
+    <t>(1,1)(1,0)</t>
+  </si>
+  <si>
+    <t>(0,0)(1,0)</t>
+  </si>
+  <si>
+    <t>WXY'Z</t>
+  </si>
+  <si>
+    <t>WXYZ'</t>
+  </si>
+  <si>
+    <t>W'X'YZ'</t>
+  </si>
+  <si>
+    <t>(WXY'Z)+(WXYZ')+(W'X'YZ')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,8 +328,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +380,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -448,24 +573,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -482,24 +593,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -513,6 +614,72 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,32 +1014,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A366281-D350-405C-ADA4-B50600092A55}">
-  <dimension ref="B2:O19"/>
+  <dimension ref="B2:P41"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="9" t="s">
+      <c r="C2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="11"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32"/>
       <c r="O2" t="s">
         <v>16</v>
       </c>
@@ -1490,7 +1657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>13</v>
       </c>
@@ -1534,7 +1701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>14</v>
       </c>
@@ -1578,7 +1745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>15</v>
       </c>
@@ -1622,10 +1789,605 @@
         <v>21</v>
       </c>
     </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="32"/>
+      <c r="O24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>4</v>
+      </c>
+      <c r="P27" s="37"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s">
+        <v>22</v>
+      </c>
+      <c r="P28" s="37"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29">
+        <v>8</v>
+      </c>
+      <c r="P29" s="37"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s">
+        <v>58</v>
+      </c>
+      <c r="P30" s="37"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31">
+        <v>9</v>
+      </c>
+      <c r="P31" s="37"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s">
+        <v>59</v>
+      </c>
+      <c r="P32" s="37"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33">
+        <v>2</v>
+      </c>
+      <c r="P33" s="37"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>9</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35">
+        <v>4</v>
+      </c>
+      <c r="P35" s="37"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s">
+        <v>22</v>
+      </c>
+      <c r="P36" s="37"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>11</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37">
+        <v>8</v>
+      </c>
+      <c r="P37" s="37"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s">
+        <v>58</v>
+      </c>
+      <c r="P38" s="37"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>13</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39">
+        <v>9</v>
+      </c>
+      <c r="P39" s="37"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>14</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s">
+        <v>59</v>
+      </c>
+      <c r="P40" s="37"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>15</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41">
+        <v>2</v>
+      </c>
+      <c r="P41" s="37"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="P34:P41"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:N2"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:N24"/>
+    <mergeCell ref="P26:P33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1633,22 +2395,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E222B1F1-1E9D-47E5-8B50-7CFB02FF7A54}">
-  <dimension ref="B2:N36"/>
+  <dimension ref="B2:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:G37"/>
+    <sheetView topLeftCell="B48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="C2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1690,16 +2452,16 @@
       <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="32">
-        <v>0</v>
-      </c>
-      <c r="K3" s="34">
-        <v>0</v>
-      </c>
-      <c r="L3" s="35">
-        <v>0</v>
-      </c>
-      <c r="M3" s="30">
+      <c r="J3" s="22">
+        <v>0</v>
+      </c>
+      <c r="K3" s="24">
+        <v>0</v>
+      </c>
+      <c r="L3" s="25">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1725,16 +2487,16 @@
       <c r="I4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="26">
-        <v>1</v>
-      </c>
-      <c r="K4" s="26">
-        <v>1</v>
-      </c>
-      <c r="L4" s="39">
-        <v>0</v>
-      </c>
-      <c r="M4" s="28">
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="29">
+        <v>0</v>
+      </c>
+      <c r="M4" s="19">
         <v>1</v>
       </c>
     </row>
@@ -1760,16 +2522,16 @@
       <c r="I5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="26">
-        <v>1</v>
-      </c>
-      <c r="K5" s="26">
-        <v>1</v>
-      </c>
-      <c r="L5" s="27">
-        <v>1</v>
-      </c>
-      <c r="M5" s="26">
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1795,16 +2557,16 @@
       <c r="I6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="21">
-        <v>0</v>
-      </c>
-      <c r="K6" s="17">
-        <v>0</v>
-      </c>
-      <c r="L6" s="36">
-        <v>0</v>
-      </c>
-      <c r="M6" s="29">
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="26">
+        <v>0</v>
+      </c>
+      <c r="M6" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1870,10 +2632,10 @@
       <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="21" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1896,10 +2658,10 @@
       <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="23" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1922,10 +2684,10 @@
       <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1948,10 +2710,10 @@
       <c r="G12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1974,10 +2736,10 @@
       <c r="G13" s="2">
         <v>0</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2000,10 +2762,10 @@
       <c r="G14" s="2">
         <v>1</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="37" t="s">
+      <c r="J14" s="27" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2026,10 +2788,10 @@
       <c r="G15" s="2">
         <v>0</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="28" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2052,14 +2814,14 @@
       <c r="G16" s="2">
         <v>1</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
@@ -2080,13 +2842,13 @@
       <c r="G17" s="2">
         <v>1</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
@@ -2158,7 +2920,7 @@
       <c r="E22" s="7">
         <v>0</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2166,16 +2928,16 @@
       <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="13">
-        <v>1</v>
-      </c>
-      <c r="D23" s="13">
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9">
         <v>1</v>
       </c>
       <c r="E23" s="8">
         <v>0</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2183,16 +2945,16 @@
       <c r="B24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="17">
-        <v>1</v>
-      </c>
-      <c r="D24" s="17">
-        <v>1</v>
-      </c>
-      <c r="E24" s="18">
-        <v>1</v>
-      </c>
-      <c r="F24" s="21">
+      <c r="C24" s="11">
+        <v>1</v>
+      </c>
+      <c r="D24" s="11">
+        <v>1</v>
+      </c>
+      <c r="E24" s="12">
+        <v>1</v>
+      </c>
+      <c r="F24" s="15">
         <v>1</v>
       </c>
     </row>
@@ -2209,7 +2971,7 @@
       <c r="E25" s="8">
         <v>0</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="16">
         <v>1</v>
       </c>
     </row>
@@ -2219,12 +2981,12 @@
       </c>
     </row>
     <row r="28" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
       <c r="F28" t="s">
         <v>48</v>
       </c>
@@ -2240,33 +3002,33 @@
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="25" t="s">
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="23" t="s">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="24" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>51</v>
       </c>
@@ -2274,17 +3036,686 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="12" t="s">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="C41" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+      <c r="C43" s="38">
+        <v>0</v>
+      </c>
+      <c r="D43" s="38">
+        <v>0</v>
+      </c>
+      <c r="E43" s="38">
+        <v>0</v>
+      </c>
+      <c r="F43" s="38">
+        <v>0</v>
+      </c>
+      <c r="G43" s="38">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="43">
+        <v>1</v>
+      </c>
+      <c r="K43" s="41">
+        <v>1</v>
+      </c>
+      <c r="L43" s="44">
+        <v>1</v>
+      </c>
+      <c r="M43" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" s="47">
+        <v>1</v>
+      </c>
+      <c r="K44" s="47">
+        <v>1</v>
+      </c>
+      <c r="L44" s="48">
+        <v>1</v>
+      </c>
+      <c r="M44" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>2</v>
+      </c>
+      <c r="C45" s="38">
+        <v>0</v>
+      </c>
+      <c r="D45" s="38">
+        <v>0</v>
+      </c>
+      <c r="E45" s="38">
+        <v>1</v>
+      </c>
+      <c r="F45" s="38">
+        <v>0</v>
+      </c>
+      <c r="G45" s="38">
+        <v>1</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="15">
+        <v>1</v>
+      </c>
+      <c r="K45" s="40">
+        <v>0</v>
+      </c>
+      <c r="L45" s="44">
+        <v>1</v>
+      </c>
+      <c r="M45" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>3</v>
+      </c>
+      <c r="C46" s="38">
+        <v>0</v>
+      </c>
+      <c r="D46" s="38">
+        <v>0</v>
+      </c>
+      <c r="E46" s="38">
+        <v>1</v>
+      </c>
+      <c r="F46" s="38">
+        <v>1</v>
+      </c>
+      <c r="G46" s="38">
+        <v>1</v>
+      </c>
+      <c r="I46" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="51">
+        <v>1</v>
+      </c>
+      <c r="K46" s="50">
+        <v>1</v>
+      </c>
+      <c r="L46" s="50">
+        <v>1</v>
+      </c>
+      <c r="M46" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>4</v>
+      </c>
+      <c r="C47" s="38">
+        <v>0</v>
+      </c>
+      <c r="D47" s="38">
+        <v>1</v>
+      </c>
+      <c r="E47" s="38">
+        <v>0</v>
+      </c>
+      <c r="F47" s="38">
+        <v>0</v>
+      </c>
+      <c r="G47" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>5</v>
+      </c>
+      <c r="C48" s="38">
+        <v>0</v>
+      </c>
+      <c r="D48" s="38">
+        <v>1</v>
+      </c>
+      <c r="E48" s="38">
+        <v>0</v>
+      </c>
+      <c r="F48" s="38">
+        <v>1</v>
+      </c>
+      <c r="G48" s="38">
+        <v>1</v>
+      </c>
+      <c r="I48" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="N48" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="O48" s="49"/>
+      <c r="P48" s="49"/>
+      <c r="Q48" s="49"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>6</v>
+      </c>
+      <c r="C49" s="38">
+        <v>0</v>
+      </c>
+      <c r="D49" s="38">
+        <v>1</v>
+      </c>
+      <c r="E49" s="38">
+        <v>1</v>
+      </c>
+      <c r="F49" s="38">
+        <v>0</v>
+      </c>
+      <c r="G49" s="38">
+        <v>0</v>
+      </c>
+      <c r="I49" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="N49" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>7</v>
+      </c>
+      <c r="C50" s="38">
+        <v>0</v>
+      </c>
+      <c r="D50" s="38">
+        <v>1</v>
+      </c>
+      <c r="E50" s="38">
+        <v>1</v>
+      </c>
+      <c r="F50" s="38">
+        <v>1</v>
+      </c>
+      <c r="G50" s="38">
+        <v>1</v>
+      </c>
+      <c r="I50" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>8</v>
+      </c>
+      <c r="C51" s="38">
+        <v>1</v>
+      </c>
+      <c r="D51" s="38">
+        <v>0</v>
+      </c>
+      <c r="E51" s="38">
+        <v>0</v>
+      </c>
+      <c r="F51" s="38">
+        <v>0</v>
+      </c>
+      <c r="G51" s="38">
+        <v>1</v>
+      </c>
+      <c r="I51" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>9</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="N52" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="52"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <v>10</v>
+      </c>
+      <c r="C53" s="38">
+        <v>1</v>
+      </c>
+      <c r="D53" s="38">
+        <v>0</v>
+      </c>
+      <c r="E53" s="38">
+        <v>1</v>
+      </c>
+      <c r="F53" s="38">
+        <v>0</v>
+      </c>
+      <c r="G53" s="38">
+        <v>1</v>
+      </c>
+      <c r="I53" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="N53" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="O53" s="33"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <v>11</v>
+      </c>
+      <c r="C54" s="38">
+        <v>1</v>
+      </c>
+      <c r="D54" s="38">
+        <v>0</v>
+      </c>
+      <c r="E54" s="38">
+        <v>1</v>
+      </c>
+      <c r="F54" s="38">
+        <v>1</v>
+      </c>
+      <c r="G54" s="38">
+        <v>1</v>
+      </c>
+      <c r="I54" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>12</v>
+      </c>
+      <c r="C55" s="38">
+        <v>1</v>
+      </c>
+      <c r="D55" s="38">
+        <v>1</v>
+      </c>
+      <c r="E55" s="38">
+        <v>0</v>
+      </c>
+      <c r="F55" s="38">
+        <v>0</v>
+      </c>
+      <c r="G55" s="38">
+        <v>1</v>
+      </c>
+      <c r="I55" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="45"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
+        <v>13</v>
+      </c>
+      <c r="C56" s="38">
+        <v>1</v>
+      </c>
+      <c r="D56" s="38">
+        <v>1</v>
+      </c>
+      <c r="E56" s="38">
+        <v>0</v>
+      </c>
+      <c r="F56" s="38">
+        <v>1</v>
+      </c>
+      <c r="G56" s="38">
+        <v>1</v>
+      </c>
+      <c r="I56" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <v>14</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
+        <v>15</v>
+      </c>
+      <c r="C58" s="38">
+        <v>1</v>
+      </c>
+      <c r="D58" s="38">
+        <v>1</v>
+      </c>
+      <c r="E58" s="38">
+        <v>1</v>
+      </c>
+      <c r="F58" s="38">
+        <v>1</v>
+      </c>
+      <c r="G58" s="38">
+        <v>1</v>
+      </c>
+      <c r="K58" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="L58" s="59"/>
+      <c r="M58" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="N58" s="59"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B63" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="53">
+        <v>1</v>
+      </c>
+      <c r="D63" s="53">
+        <v>1</v>
+      </c>
+      <c r="E63" s="40">
+        <v>1</v>
+      </c>
+      <c r="F63" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B64" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="53">
+        <v>1</v>
+      </c>
+      <c r="D64" s="53">
+        <v>1</v>
+      </c>
+      <c r="E64" s="39">
+        <v>1</v>
+      </c>
+      <c r="F64" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="39">
+        <v>1</v>
+      </c>
+      <c r="D65" s="54">
+        <v>0</v>
+      </c>
+      <c r="E65" s="40">
+        <v>1</v>
+      </c>
+      <c r="F65" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="39">
+        <v>1</v>
+      </c>
+      <c r="D66" s="40">
+        <v>1</v>
+      </c>
+      <c r="E66" s="40">
+        <v>1</v>
+      </c>
+      <c r="F66" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" s="59"/>
+      <c r="D72" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="E72" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="24">
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="N48:Q48"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="C41:F41"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="I17:M17"/>
